--- a/Altium project/cSLIM-V1/Project Outputs for cSLIM-V1/BOM/Bill of Materials-cSLIM_V1.xlsx
+++ b/Altium project/cSLIM-V1/Project Outputs for cSLIM-V1/BOM/Bill of Materials-cSLIM_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetleba\Documents\SKOLE\Fordypningsprosjekt\IoF\Altium project\cSLIM-V1\Project Outputs for cSLIM-V1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4796FAE3-E5DB-423B-933E-FA9057D65D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A1643-DB64-4266-8AEC-74EF0D8B2D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{9B658AE0-80A6-45F3-B691-AB633BD0C699}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="272">
   <si>
     <t>Designator</t>
   </si>
@@ -793,6 +793,66 @@
   </si>
   <si>
     <t>Resistor</t>
+  </si>
+  <si>
+    <t>Components not specified in the generated BOM</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>LS013B7DH03</t>
+  </si>
+  <si>
+    <t>LCD TFT 1.28" 128X128 FPC</t>
+  </si>
+  <si>
+    <t>SPC02SXIN-RC</t>
+  </si>
+  <si>
+    <t>CONN JUMPER SHORTING .100" GOLD</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>FXP611.07.0092C</t>
+  </si>
+  <si>
+    <t>1 (2 possible)</t>
+  </si>
+  <si>
+    <t>GNSS antenna</t>
+  </si>
+  <si>
+    <t>RF ANT 1.6GHZ FLAT PATCH IPEX</t>
+  </si>
+  <si>
+    <t>1528-2009-ND</t>
+  </si>
+  <si>
+    <t>SWD cable</t>
+  </si>
+  <si>
+    <t>10-PIN 2X5 SOCKET-SOCKET 1.27MM</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>USB cable</t>
+  </si>
+  <si>
+    <t>USB 2.0 to USB MINI for power.</t>
+  </si>
+  <si>
+    <t>SEGGER programmer</t>
+  </si>
+  <si>
+    <t>Required accessories</t>
+  </si>
+  <si>
+    <t>SWD prog and RTT real time logging i.e. J-Link SEGGER EDU or nRF9160 DK.</t>
   </si>
 </sst>
 </file>
@@ -808,7 +868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,8 +881,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -858,11 +924,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,6 +1040,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,10 +1385,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1900,7 @@
         <v>82</v>
       </c>
       <c r="F26" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2763,25 +2921,157 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="6">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="B81" s="18"/>
+      <c r="C81" s="19">
+        <v>1</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="21">
         <v>3</v>
       </c>
     </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F83" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="6">
+        <v>3</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F85" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F87" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F88" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F89" s="9">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A86:E86"/>
+  </mergeCells>
   <pageMargins left="0.84" right="0.44" top="0.16" bottom="0.04" header="0.15" footer="0.31496062992125984"/>
   <pageSetup scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
